--- a/Data/axanboutput.xlsx
+++ b/Data/axanboutput.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="94">
   <si>
     <t>Source_of_Business</t>
   </si>
@@ -40,7 +40,7 @@
     <t>All_Risks_Unspecified_SI</t>
   </si>
   <si>
-    <t>Standarad_Of_Construction</t>
+    <t>Standard_Of_Construction</t>
   </si>
   <si>
     <t>Year_Built</t>
@@ -118,7 +118,10 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>BO</t>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Non Standard 10%</t>
   </si>
   <si>
     <t>Y</t>
@@ -142,130 +145,157 @@
     <t>0</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>A96 YW57</t>
-  </si>
-  <si>
-    <t>D07 C7Y0</t>
-  </si>
-  <si>
-    <t>D05 VF25</t>
-  </si>
-  <si>
-    <t>D20 DX33</t>
-  </si>
-  <si>
-    <t>D20 HR90</t>
-  </si>
-  <si>
-    <t>A94 NY67</t>
-  </si>
-  <si>
-    <t>P75 AW62</t>
-  </si>
-  <si>
-    <t>D18 N6X8</t>
-  </si>
-  <si>
-    <t>A85 X297</t>
-  </si>
-  <si>
-    <t>P25 HX47</t>
-  </si>
-  <si>
-    <t>A85 W279</t>
-  </si>
-  <si>
-    <t>C15 E4H2</t>
-  </si>
-  <si>
-    <t>D11 K4H6</t>
-  </si>
-  <si>
-    <t>D05 AK80</t>
-  </si>
-  <si>
-    <t>D11 FN80</t>
-  </si>
-  <si>
-    <t>W23 Y049</t>
-  </si>
-  <si>
-    <t>E21 D253</t>
-  </si>
-  <si>
-    <t>D13 DY60</t>
-  </si>
-  <si>
-    <t>F31 EY17</t>
-  </si>
-  <si>
-    <t>K67 A9K2</t>
-  </si>
-  <si>
-    <t>X91 D32T</t>
-  </si>
-  <si>
-    <t>A98 Y3C6</t>
-  </si>
-  <si>
-    <t>D6W EA33</t>
-  </si>
-  <si>
-    <t>W23 EF21</t>
-  </si>
-  <si>
-    <t>D18 E519</t>
-  </si>
-  <si>
-    <t>W91 XV20</t>
-  </si>
-  <si>
-    <t>R42 YV30</t>
-  </si>
-  <si>
-    <t>V94 VHH7</t>
-  </si>
-  <si>
-    <t>D12 F2P2</t>
-  </si>
-  <si>
-    <t>T23 X7T8</t>
-  </si>
-  <si>
-    <t>D14 VP98</t>
-  </si>
-  <si>
-    <t>A98 YH04</t>
-  </si>
-  <si>
-    <t>V42 CP57</t>
-  </si>
-  <si>
-    <t>T45 TW01</t>
-  </si>
-  <si>
-    <t>V93 Y5X6</t>
-  </si>
-  <si>
-    <t>X91 TP95</t>
-  </si>
-  <si>
-    <t>V94 DC6Y</t>
-  </si>
-  <si>
-    <t>D04 NX95</t>
-  </si>
-  <si>
-    <t>H91 DD0V</t>
-  </si>
-  <si>
-    <t>D05 H5X7</t>
-  </si>
-  <si>
-    <t>W91 F8C3</t>
+    <t>250</t>
+  </si>
+  <si>
+    <t>Y14 DK16</t>
+  </si>
+  <si>
+    <t>A92 W5P1</t>
+  </si>
+  <si>
+    <t>D12 H5F1</t>
+  </si>
+  <si>
+    <t>D05 F752</t>
+  </si>
+  <si>
+    <t>W12 EP26</t>
+  </si>
+  <si>
+    <t>D20 X285</t>
+  </si>
+  <si>
+    <t>T45 WD32</t>
+  </si>
+  <si>
+    <t>A83 HC64</t>
+  </si>
+  <si>
+    <t>D14 T2C6</t>
+  </si>
+  <si>
+    <t>W91 NH7D</t>
+  </si>
+  <si>
+    <t>D05 KN50</t>
+  </si>
+  <si>
+    <t>X91 N8YY</t>
+  </si>
+  <si>
+    <t>W23 A8N9</t>
+  </si>
+  <si>
+    <t>A63 N592</t>
+  </si>
+  <si>
+    <t>D05 P895</t>
+  </si>
+  <si>
+    <t>D07 K094</t>
+  </si>
+  <si>
+    <t>Y35 X003</t>
+  </si>
+  <si>
+    <t>R93 HN83</t>
+  </si>
+  <si>
+    <t>F26 Y1K1</t>
+  </si>
+  <si>
+    <t>V95 PPA9</t>
+  </si>
+  <si>
+    <t>R95 D9H9</t>
+  </si>
+  <si>
+    <t>K36 H799</t>
+  </si>
+  <si>
+    <t>W12 TK57</t>
+  </si>
+  <si>
+    <t>P25 F766</t>
+  </si>
+  <si>
+    <t>P43 ET02</t>
+  </si>
+  <si>
+    <t>K78 H0A8</t>
+  </si>
+  <si>
+    <t>D15 TK27</t>
+  </si>
+  <si>
+    <t>D13 R2V3</t>
+  </si>
+  <si>
+    <t>K78 F8R9</t>
+  </si>
+  <si>
+    <t>K36 WR64</t>
+  </si>
+  <si>
+    <t>V35 RX22</t>
+  </si>
+  <si>
+    <t>V93 D7N8</t>
+  </si>
+  <si>
+    <t>A94 Y9D3</t>
+  </si>
+  <si>
+    <t>D24 PX88</t>
+  </si>
+  <si>
+    <t>D15 HDY0</t>
+  </si>
+  <si>
+    <t>R56 FX90</t>
+  </si>
+  <si>
+    <t>D22 K461</t>
+  </si>
+  <si>
+    <t>V94 ECR6</t>
+  </si>
+  <si>
+    <t>A98 HR66</t>
+  </si>
+  <si>
+    <t>D11 A6Y6</t>
+  </si>
+  <si>
+    <t>V94 RF3X</t>
+  </si>
+  <si>
+    <t>D16 P7N1</t>
+  </si>
+  <si>
+    <t>W91 P6V0</t>
+  </si>
+  <si>
+    <t>D09 V678</t>
+  </si>
+  <si>
+    <t>A83 E395</t>
+  </si>
+  <si>
+    <t>W91 TD40</t>
+  </si>
+  <si>
+    <t>D14 C659</t>
+  </si>
+  <si>
+    <t>A63 XR22</t>
+  </si>
+  <si>
+    <t>H91 P0K6</t>
+  </si>
+  <si>
+    <t>D16 CR98</t>
   </si>
 </sst>
 </file>
@@ -623,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD53"/>
+  <dimension ref="A1:AD51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -735,38 +765,50 @@
         <v>33</v>
       </c>
       <c r="E2">
-        <v>230000</v>
+        <v>275000</v>
       </c>
       <c r="F2">
-        <v>40000</v>
+        <v>41000</v>
+      </c>
+      <c r="G2">
+        <v>3640</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
       </c>
       <c r="J2">
-        <v>1963</v>
+        <v>1998</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
         <v>32</v>
       </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
       <c r="T2" t="s">
         <v>32</v>
       </c>
@@ -777,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="AD2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -794,38 +836,50 @@
         <v>33</v>
       </c>
       <c r="E3">
-        <v>339000</v>
+        <v>240000</v>
       </c>
       <c r="F3">
-        <v>73500</v>
+        <v>50000</v>
+      </c>
+      <c r="G3">
+        <v>5000</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
       </c>
       <c r="J3">
-        <v>1938</v>
+        <v>2005</v>
       </c>
       <c r="K3">
         <v>5</v>
       </c>
       <c r="L3">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" t="s">
         <v>32</v>
       </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
       <c r="T3" t="s">
         <v>32</v>
       </c>
@@ -836,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="AD3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -850,41 +904,53 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4">
-        <v>280000</v>
+        <v>168000</v>
       </c>
       <c r="F4">
         <v>50000</v>
       </c>
+      <c r="G4">
+        <v>1500</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
       <c r="J4">
-        <v>1939</v>
+        <v>1960</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" t="s">
         <v>32</v>
       </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
       <c r="T4" t="s">
         <v>32</v>
       </c>
@@ -893,6 +959,9 @@
       </c>
       <c r="V4">
         <v>0</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -909,40 +978,43 @@
         <v>33</v>
       </c>
       <c r="E5">
-        <v>249600</v>
+        <v>450000</v>
       </c>
       <c r="F5">
-        <v>62400</v>
+        <v>80000</v>
       </c>
       <c r="G5">
-        <v>9872</v>
+        <v>31500</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
       <c r="J5">
-        <v>1968</v>
+        <v>1950</v>
       </c>
       <c r="K5">
         <v>5</v>
       </c>
       <c r="L5">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" t="s">
         <v>32</v>
@@ -960,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="AD5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -977,38 +1049,50 @@
         <v>33</v>
       </c>
       <c r="E6">
-        <v>317769</v>
+        <v>337000</v>
       </c>
       <c r="F6">
-        <v>35000</v>
+        <v>101000</v>
+      </c>
+      <c r="G6">
+        <v>7300</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
       </c>
       <c r="J6">
-        <v>1973</v>
+        <v>2005</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" t="s">
         <v>32</v>
       </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
       <c r="T6" t="s">
         <v>32</v>
       </c>
@@ -1019,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AD6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -1036,38 +1120,50 @@
         <v>33</v>
       </c>
       <c r="E7">
-        <v>259000</v>
+        <v>160000</v>
       </c>
       <c r="F7">
-        <v>30840</v>
+        <v>30000</v>
+      </c>
+      <c r="G7">
+        <v>3000</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
       </c>
       <c r="J7">
-        <v>1955</v>
+        <v>1990</v>
       </c>
       <c r="K7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O7" t="s">
         <v>32</v>
       </c>
       <c r="P7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R7" t="s">
         <v>32</v>
       </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
       <c r="T7" t="s">
         <v>32</v>
       </c>
@@ -1076,6 +1172,9 @@
       </c>
       <c r="V7">
         <v>0</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1092,38 +1191,50 @@
         <v>33</v>
       </c>
       <c r="E8">
-        <v>300000</v>
+        <v>380000</v>
       </c>
       <c r="F8">
-        <v>100000</v>
+        <v>76000</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>6200</v>
+      </c>
+      <c r="I8" t="s">
+        <v>34</v>
       </c>
       <c r="J8">
-        <v>1991</v>
+        <v>2000</v>
       </c>
       <c r="K8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L8">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="M8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R8" t="s">
         <v>32</v>
       </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
       <c r="T8" t="s">
         <v>32</v>
       </c>
@@ -1132,6 +1243,9 @@
       </c>
       <c r="V8">
         <v>0</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1145,41 +1259,53 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="F9">
-        <v>50000</v>
+        <v>30000</v>
+      </c>
+      <c r="G9">
+        <v>5400</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
       </c>
       <c r="J9">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R9" t="s">
         <v>32</v>
       </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
       <c r="T9" t="s">
         <v>32</v>
       </c>
@@ -1188,6 +1314,9 @@
       </c>
       <c r="V9">
         <v>0</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -1204,40 +1333,43 @@
         <v>33</v>
       </c>
       <c r="E10">
-        <v>190000</v>
+        <v>300000</v>
       </c>
       <c r="F10">
-        <v>95000</v>
+        <v>100000</v>
       </c>
       <c r="G10">
-        <v>2000</v>
+        <v>6300</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
       <c r="J10">
-        <v>2007</v>
+        <v>1995</v>
       </c>
       <c r="K10">
         <v>5</v>
       </c>
       <c r="L10">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R10" t="s">
         <v>32</v>
@@ -1253,6 +1385,9 @@
       </c>
       <c r="V10">
         <v>0</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -1269,38 +1404,50 @@
         <v>33</v>
       </c>
       <c r="E11">
-        <v>210000</v>
+        <v>280000</v>
       </c>
       <c r="F11">
-        <v>23000</v>
+        <v>33000</v>
+      </c>
+      <c r="G11">
+        <v>9250</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>34</v>
       </c>
       <c r="J11">
-        <v>1982</v>
+        <v>1970</v>
       </c>
       <c r="K11">
         <v>5</v>
       </c>
       <c r="L11">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O11" t="s">
         <v>32</v>
       </c>
       <c r="P11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R11" t="s">
         <v>32</v>
       </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
       <c r="T11" t="s">
         <v>32</v>
       </c>
@@ -1311,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="AD11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -1328,38 +1475,50 @@
         <v>33</v>
       </c>
       <c r="E12">
-        <v>259000</v>
+        <v>300000</v>
       </c>
       <c r="F12">
-        <v>35980</v>
+        <v>40000</v>
+      </c>
+      <c r="G12">
+        <v>11000</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
       </c>
       <c r="J12">
-        <v>1952</v>
+        <v>1965</v>
       </c>
       <c r="K12">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L12">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="M12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R12" t="s">
         <v>32</v>
       </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
       <c r="T12" t="s">
         <v>32</v>
       </c>
@@ -1370,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="AD12" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -1387,38 +1546,50 @@
         <v>33</v>
       </c>
       <c r="E13">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="F13">
-        <v>50000</v>
+        <v>40000</v>
+      </c>
+      <c r="G13">
+        <v>3000</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
       </c>
       <c r="J13">
-        <v>1977</v>
+        <v>2004</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="M13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R13" t="s">
         <v>32</v>
       </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
       <c r="T13" t="s">
         <v>32</v>
       </c>
@@ -1429,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="AD13" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -1446,40 +1617,43 @@
         <v>33</v>
       </c>
       <c r="E14">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="F14">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="G14">
-        <v>7900</v>
+        <v>5500</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
       <c r="J14">
-        <v>1999</v>
+        <v>1986</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L14">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R14" t="s">
         <v>32</v>
@@ -1497,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="AD14" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -1514,38 +1688,50 @@
         <v>33</v>
       </c>
       <c r="E15">
-        <v>216000</v>
+        <v>932400</v>
       </c>
       <c r="F15">
-        <v>25000</v>
+        <v>71960</v>
+      </c>
+      <c r="G15">
+        <v>16500</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
       </c>
       <c r="J15">
-        <v>2021</v>
+        <v>2000</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="M15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R15" t="s">
         <v>32</v>
       </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
       <c r="T15" t="s">
         <v>32</v>
       </c>
@@ -1556,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="AD15" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -1573,38 +1759,50 @@
         <v>33</v>
       </c>
       <c r="E16">
-        <v>161200</v>
+        <v>250000</v>
       </c>
       <c r="F16">
-        <v>40000</v>
+        <v>35000</v>
+      </c>
+      <c r="G16">
+        <v>4500</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>34</v>
       </c>
       <c r="J16">
-        <v>1975</v>
+        <v>1989</v>
       </c>
       <c r="K16">
         <v>5</v>
       </c>
       <c r="L16">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R16" t="s">
         <v>32</v>
       </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
       <c r="T16" t="s">
         <v>32</v>
       </c>
@@ -1615,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="AD16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:30">
@@ -1632,38 +1830,50 @@
         <v>33</v>
       </c>
       <c r="E17">
-        <v>400000</v>
+        <v>259000</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>25700</v>
+      </c>
+      <c r="G17">
+        <v>8995</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>34</v>
       </c>
       <c r="J17">
-        <v>1998</v>
+        <v>1980</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L17">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R17" t="s">
         <v>32</v>
       </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
       <c r="T17" t="s">
         <v>32</v>
       </c>
@@ -1672,6 +1882,9 @@
       </c>
       <c r="V17">
         <v>0</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -1688,38 +1901,50 @@
         <v>33</v>
       </c>
       <c r="E18">
-        <v>410000</v>
+        <v>195000</v>
       </c>
       <c r="F18">
         <v>50000</v>
       </c>
+      <c r="G18">
+        <v>2500</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>34</v>
+      </c>
       <c r="J18">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="K18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L18">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R18" t="s">
         <v>32</v>
       </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
       <c r="T18" t="s">
         <v>32</v>
       </c>
@@ -1730,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="AD18" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -1747,38 +1972,50 @@
         <v>33</v>
       </c>
       <c r="E19">
-        <v>155400</v>
+        <v>273000</v>
       </c>
       <c r="F19">
-        <v>25700</v>
+        <v>71000</v>
+      </c>
+      <c r="G19">
+        <v>2900</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>34</v>
       </c>
       <c r="J19">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="K19">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L19">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="M19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R19" t="s">
         <v>32</v>
       </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
       <c r="T19" t="s">
         <v>32</v>
       </c>
@@ -1789,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="AD19" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -1806,49 +2043,61 @@
         <v>33</v>
       </c>
       <c r="E20">
-        <v>750000</v>
+        <v>500000</v>
       </c>
       <c r="F20">
-        <v>100000</v>
+        <v>60000</v>
+      </c>
+      <c r="G20">
+        <v>11050</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>34</v>
       </c>
       <c r="J20">
-        <v>1962</v>
+        <v>2007</v>
       </c>
       <c r="K20">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L20">
+        <v>55</v>
+      </c>
+      <c r="M20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" t="s">
+        <v>38</v>
+      </c>
+      <c r="P20" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>42</v>
+      </c>
+      <c r="R20" t="s">
+        <v>32</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20" t="s">
+        <v>32</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="s">
         <v>62</v>
-      </c>
-      <c r="M20" t="s">
-        <v>35</v>
-      </c>
-      <c r="N20" t="s">
-        <v>35</v>
-      </c>
-      <c r="O20" t="s">
-        <v>37</v>
-      </c>
-      <c r="P20" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>41</v>
-      </c>
-      <c r="R20" t="s">
-        <v>32</v>
-      </c>
-      <c r="T20" t="s">
-        <v>32</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -1865,58 +2114,61 @@
         <v>33</v>
       </c>
       <c r="E21">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="F21">
-        <v>50000</v>
+        <v>55000</v>
       </c>
       <c r="G21">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
+      <c r="I21" t="s">
+        <v>35</v>
+      </c>
       <c r="J21">
-        <v>1963</v>
+        <v>2020</v>
       </c>
       <c r="K21">
         <v>5</v>
       </c>
       <c r="L21">
+        <v>36</v>
+      </c>
+      <c r="M21" t="s">
+        <v>36</v>
+      </c>
+      <c r="N21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" t="s">
+        <v>38</v>
+      </c>
+      <c r="P21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>42</v>
+      </c>
+      <c r="R21" t="s">
+        <v>32</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21" t="s">
+        <v>32</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="s">
         <v>63</v>
-      </c>
-      <c r="M21" t="s">
-        <v>35</v>
-      </c>
-      <c r="N21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O21" t="s">
-        <v>37</v>
-      </c>
-      <c r="P21" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>41</v>
-      </c>
-      <c r="R21" t="s">
-        <v>32</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21" t="s">
-        <v>32</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -1933,38 +2185,50 @@
         <v>33</v>
       </c>
       <c r="E22">
-        <v>200000</v>
+        <v>470000</v>
       </c>
       <c r="F22">
-        <v>40000</v>
+        <v>125000</v>
+      </c>
+      <c r="G22">
+        <v>2000</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>34</v>
       </c>
       <c r="J22">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="K22">
         <v>5</v>
       </c>
       <c r="L22">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O22" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R22" t="s">
         <v>32</v>
       </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
       <c r="T22" t="s">
         <v>32</v>
       </c>
@@ -1975,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="AD22" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -1992,40 +2256,43 @@
         <v>33</v>
       </c>
       <c r="E23">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="F23">
-        <v>77000</v>
+        <v>50000</v>
       </c>
       <c r="G23">
-        <v>2900</v>
+        <v>10000</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
+      <c r="I23" t="s">
+        <v>34</v>
+      </c>
       <c r="J23">
-        <v>1994</v>
+        <v>2005</v>
       </c>
       <c r="K23">
         <v>5</v>
       </c>
       <c r="L23">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="M23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O23" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R23" t="s">
         <v>32</v>
@@ -2043,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="AD23" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -2060,38 +2327,50 @@
         <v>33</v>
       </c>
       <c r="E24">
-        <v>300000</v>
+        <v>290000</v>
       </c>
       <c r="F24">
-        <v>20000</v>
+        <v>35000</v>
+      </c>
+      <c r="G24">
+        <v>4000</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>34</v>
       </c>
       <c r="J24">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="K24">
         <v>5</v>
       </c>
       <c r="L24">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="M24" t="s">
         <v>36</v>
       </c>
       <c r="N24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R24" t="s">
         <v>32</v>
       </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
       <c r="T24" t="s">
         <v>32</v>
       </c>
@@ -2102,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="AD24" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -2119,38 +2398,50 @@
         <v>33</v>
       </c>
       <c r="E25">
-        <v>350000</v>
+        <v>225000</v>
       </c>
       <c r="F25">
-        <v>30000</v>
+        <v>65000</v>
+      </c>
+      <c r="G25">
+        <v>12200</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>34</v>
       </c>
       <c r="J25">
-        <v>1987</v>
+        <v>2003</v>
       </c>
       <c r="K25">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="L25">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="M25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O25" t="s">
         <v>32</v>
       </c>
       <c r="P25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R25" t="s">
         <v>32</v>
       </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
       <c r="T25" t="s">
         <v>32</v>
       </c>
@@ -2161,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="AD25" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -2175,43 +2466,46 @@
         <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26">
-        <v>350000</v>
+        <v>400000</v>
       </c>
       <c r="F26">
-        <v>35000</v>
+        <v>100000</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
+      <c r="I26" t="s">
+        <v>34</v>
+      </c>
       <c r="J26">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="K26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L26">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O26" t="s">
         <v>32</v>
       </c>
       <c r="P26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R26" t="s">
         <v>32</v>
@@ -2227,6 +2521,9 @@
       </c>
       <c r="V26">
         <v>0</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:30">
@@ -2240,43 +2537,46 @@
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27">
-        <v>350000</v>
+        <v>250000</v>
       </c>
       <c r="F27">
-        <v>55000</v>
+        <v>30000</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
+      <c r="I27" t="s">
+        <v>34</v>
+      </c>
       <c r="J27">
-        <v>2004</v>
+        <v>2020</v>
       </c>
       <c r="K27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O27" t="s">
         <v>32</v>
       </c>
       <c r="P27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R27" t="s">
         <v>32</v>
@@ -2292,6 +2592,9 @@
       </c>
       <c r="V27">
         <v>0</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:30">
@@ -2308,46 +2611,49 @@
         <v>33</v>
       </c>
       <c r="E28">
-        <v>260000</v>
+        <v>500000</v>
       </c>
       <c r="F28">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="G28">
-        <v>2250</v>
+        <v>1500</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
+      <c r="I28" t="s">
+        <v>34</v>
+      </c>
       <c r="J28">
-        <v>2005</v>
+        <v>1978</v>
       </c>
       <c r="K28">
         <v>5</v>
       </c>
       <c r="L28">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="M28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O28" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R28" t="s">
         <v>32</v>
       </c>
       <c r="S28">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="T28" t="s">
         <v>32</v>
@@ -2359,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="AD28" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:30">
@@ -2376,38 +2682,50 @@
         <v>33</v>
       </c>
       <c r="E29">
-        <v>450000</v>
+        <v>240000</v>
       </c>
       <c r="F29">
-        <v>50000</v>
+        <v>35300</v>
+      </c>
+      <c r="G29">
+        <v>11990</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>34</v>
       </c>
       <c r="J29">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="K29">
         <v>5</v>
       </c>
       <c r="L29">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O29" t="s">
         <v>32</v>
       </c>
       <c r="P29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R29" t="s">
         <v>32</v>
       </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
       <c r="T29" t="s">
         <v>32</v>
       </c>
@@ -2418,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="AD29" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -2435,40 +2753,43 @@
         <v>33</v>
       </c>
       <c r="E30">
-        <v>160000</v>
+        <v>270000</v>
       </c>
       <c r="F30">
-        <v>25000</v>
+        <v>80000</v>
       </c>
       <c r="G30">
-        <v>2500</v>
+        <v>4600</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
+      <c r="I30" t="s">
+        <v>34</v>
+      </c>
       <c r="J30">
-        <v>1954</v>
+        <v>1974</v>
       </c>
       <c r="K30">
         <v>5</v>
       </c>
       <c r="L30">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="M30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O30" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R30" t="s">
         <v>32</v>
@@ -2486,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="AD30" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -2503,38 +2824,50 @@
         <v>33</v>
       </c>
       <c r="E31">
-        <v>264448</v>
+        <v>568000</v>
       </c>
       <c r="F31">
-        <v>39670</v>
+        <v>92520</v>
+      </c>
+      <c r="G31">
+        <v>14000</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>34</v>
       </c>
       <c r="J31">
-        <v>1980</v>
+        <v>2011</v>
       </c>
       <c r="K31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L31">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="M31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O31" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R31" t="s">
         <v>32</v>
       </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
       <c r="T31" t="s">
         <v>32</v>
       </c>
@@ -2545,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AD31" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -2562,38 +2895,50 @@
         <v>33</v>
       </c>
       <c r="E32">
-        <v>466200</v>
+        <v>170000</v>
       </c>
       <c r="F32">
-        <v>77100</v>
+        <v>34000</v>
+      </c>
+      <c r="G32">
+        <v>5600</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>34</v>
       </c>
       <c r="J32">
-        <v>1957</v>
+        <v>2004</v>
       </c>
       <c r="K32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L32">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="M32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O32" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R32" t="s">
         <v>32</v>
       </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
       <c r="T32" t="s">
         <v>32</v>
       </c>
@@ -2604,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="AD32" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -2621,58 +2966,61 @@
         <v>33</v>
       </c>
       <c r="E33">
-        <v>186480</v>
+        <v>300000</v>
       </c>
       <c r="F33">
-        <v>15420</v>
+        <v>30000</v>
       </c>
       <c r="G33">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
+      <c r="I33" t="s">
+        <v>34</v>
+      </c>
       <c r="J33">
-        <v>1988</v>
+        <v>2006</v>
       </c>
       <c r="K33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="M33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O33" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P33" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>42</v>
+      </c>
+      <c r="R33" t="s">
+        <v>32</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33" t="s">
         <v>38</v>
       </c>
-      <c r="Q33" t="s">
-        <v>41</v>
-      </c>
-      <c r="R33" t="s">
-        <v>32</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33" t="s">
-        <v>32</v>
-      </c>
       <c r="U33">
         <v>0</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="AD33" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -2689,37 +3037,49 @@
         <v>33</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>310000</v>
       </c>
       <c r="F34">
-        <v>75000</v>
+        <v>60000</v>
+      </c>
+      <c r="G34">
+        <v>9590</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>34</v>
       </c>
       <c r="J34">
-        <v>2006</v>
+        <v>1948</v>
       </c>
       <c r="K34">
         <v>5</v>
       </c>
       <c r="L34">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="M34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>43</v>
+      </c>
+      <c r="R34" t="s">
         <v>38</v>
       </c>
-      <c r="Q34" t="s">
-        <v>41</v>
-      </c>
-      <c r="R34" t="s">
-        <v>32</v>
+      <c r="S34">
+        <v>0</v>
       </c>
       <c r="T34" t="s">
         <v>32</v>
@@ -2731,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="AD34" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -2745,41 +3105,53 @@
         <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E35">
-        <v>560000</v>
+        <v>300000</v>
       </c>
       <c r="F35">
-        <v>80000</v>
+        <v>40000</v>
+      </c>
+      <c r="G35">
+        <v>5500</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>34</v>
       </c>
       <c r="J35">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="K35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L35">
         <v>73</v>
       </c>
       <c r="M35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O35" t="s">
         <v>32</v>
       </c>
       <c r="P35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R35" t="s">
         <v>32</v>
       </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
       <c r="T35" t="s">
         <v>32</v>
       </c>
@@ -2788,6 +3160,9 @@
       </c>
       <c r="V35">
         <v>0</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -2804,38 +3179,50 @@
         <v>33</v>
       </c>
       <c r="E36">
-        <v>250000</v>
+        <v>325000</v>
       </c>
       <c r="F36">
-        <v>73000</v>
+        <v>45000</v>
+      </c>
+      <c r="G36">
+        <v>1000</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>34</v>
       </c>
       <c r="J36">
-        <v>2005</v>
+        <v>1989</v>
       </c>
       <c r="K36">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L36">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O36" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R36" t="s">
         <v>32</v>
       </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
       <c r="T36" t="s">
         <v>32</v>
       </c>
@@ -2846,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="AD36" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -2863,43 +3250,46 @@
         <v>33</v>
       </c>
       <c r="E37">
-        <v>220000</v>
+        <v>379777</v>
       </c>
       <c r="F37">
-        <v>76500</v>
+        <v>75369</v>
       </c>
       <c r="G37">
-        <v>1400</v>
+        <v>5000</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
+      <c r="I37" t="s">
+        <v>34</v>
+      </c>
       <c r="J37">
-        <v>2006</v>
+        <v>1998</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L37">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O37" t="s">
         <v>32</v>
       </c>
       <c r="P37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R37" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -2914,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="AD37" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:30">
@@ -2931,40 +3321,43 @@
         <v>33</v>
       </c>
       <c r="E38">
-        <v>160000</v>
+        <v>250000</v>
       </c>
       <c r="F38">
-        <v>40000</v>
+        <v>46000</v>
       </c>
       <c r="G38">
-        <v>1000</v>
+        <v>14910</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
+      <c r="I38" t="s">
+        <v>34</v>
+      </c>
       <c r="J38">
-        <v>1956</v>
+        <v>1968</v>
       </c>
       <c r="K38">
         <v>5</v>
       </c>
       <c r="L38">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="M38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O38" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P38" t="s">
         <v>39</v>
       </c>
       <c r="Q38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R38" t="s">
         <v>32</v>
@@ -2982,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="AD38" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:30">
@@ -2999,38 +3392,50 @@
         <v>33</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>207200</v>
       </c>
       <c r="F39">
-        <v>51400</v>
+        <v>30840</v>
+      </c>
+      <c r="G39">
+        <v>5000</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>34</v>
       </c>
       <c r="J39">
-        <v>1995</v>
+        <v>2007</v>
       </c>
       <c r="K39">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L39">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="M39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O39" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R39" t="s">
         <v>32</v>
       </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
       <c r="T39" t="s">
         <v>32</v>
       </c>
@@ -3041,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="AD39" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -3058,38 +3463,50 @@
         <v>33</v>
       </c>
       <c r="E40">
-        <v>259000</v>
+        <v>450000</v>
       </c>
       <c r="F40">
-        <v>41120</v>
+        <v>62000</v>
+      </c>
+      <c r="G40">
+        <v>21000</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>34</v>
       </c>
       <c r="J40">
-        <v>1940</v>
+        <v>1980</v>
       </c>
       <c r="K40">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L40">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O40" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R40" t="s">
         <v>32</v>
       </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
       <c r="T40" t="s">
         <v>32</v>
       </c>
@@ -3100,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="AD40" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:30">
@@ -3117,40 +3534,43 @@
         <v>33</v>
       </c>
       <c r="E41">
-        <v>238280</v>
+        <v>207200</v>
       </c>
       <c r="F41">
-        <v>41120</v>
+        <v>30840</v>
       </c>
       <c r="G41">
-        <v>1500</v>
+        <v>7000</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
+      <c r="I41" t="s">
+        <v>34</v>
+      </c>
       <c r="J41">
-        <v>1986</v>
+        <v>1969</v>
       </c>
       <c r="K41">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L41">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="M41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R41" t="s">
         <v>32</v>
@@ -3168,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="AD41" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:30">
@@ -3185,38 +3605,50 @@
         <v>33</v>
       </c>
       <c r="E42">
-        <v>300440</v>
+        <v>400000</v>
       </c>
       <c r="F42">
-        <v>51400</v>
+        <v>30840</v>
+      </c>
+      <c r="G42">
+        <v>6600</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>34</v>
       </c>
       <c r="J42">
-        <v>1940</v>
+        <v>2006</v>
       </c>
       <c r="K42">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L42">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="M42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O42" t="s">
         <v>32</v>
       </c>
       <c r="P42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R42" t="s">
         <v>32</v>
       </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
       <c r="T42" t="s">
         <v>32</v>
       </c>
@@ -3227,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="AD42" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:30">
@@ -3244,37 +3676,49 @@
         <v>33</v>
       </c>
       <c r="E43">
-        <v>130000</v>
+        <v>310800</v>
       </c>
       <c r="F43">
-        <v>15000</v>
+        <v>41120</v>
+      </c>
+      <c r="G43">
+        <v>3144</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>34</v>
       </c>
       <c r="J43">
         <v>1974</v>
       </c>
       <c r="K43">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L43">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="M43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O43" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P43" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R43" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
       </c>
       <c r="T43" t="s">
         <v>32</v>
@@ -3286,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="AD43" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:30">
@@ -3303,38 +3747,50 @@
         <v>33</v>
       </c>
       <c r="E44">
-        <v>165760</v>
+        <v>176120</v>
       </c>
       <c r="F44">
-        <v>41120</v>
+        <v>15420</v>
+      </c>
+      <c r="G44">
+        <v>6000</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>34</v>
       </c>
       <c r="J44">
-        <v>2002</v>
+        <v>1985</v>
       </c>
       <c r="K44">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L44">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="M44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O44" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R44" t="s">
         <v>32</v>
       </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
       <c r="T44" t="s">
         <v>32</v>
       </c>
@@ -3345,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="AD44" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:30">
@@ -3362,31 +3818,40 @@
         <v>33</v>
       </c>
       <c r="E45">
-        <v>492100</v>
+        <v>308441</v>
       </c>
       <c r="F45">
-        <v>92520</v>
+        <v>20000</v>
+      </c>
+      <c r="G45">
+        <v>4000</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>34</v>
       </c>
       <c r="J45">
-        <v>1993</v>
+        <v>1954</v>
       </c>
       <c r="K45">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L45">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="M45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q45" t="s">
         <v>42</v>
@@ -3394,6 +3859,9 @@
       <c r="R45" t="s">
         <v>32</v>
       </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
       <c r="T45" t="s">
         <v>32</v>
       </c>
@@ -3404,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="AD45" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:30">
@@ -3418,41 +3886,53 @@
         <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E46">
-        <v>400000</v>
+        <v>207200</v>
       </c>
       <c r="F46">
-        <v>48000</v>
+        <v>46260</v>
+      </c>
+      <c r="G46">
+        <v>22500</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>34</v>
       </c>
       <c r="J46">
-        <v>1940</v>
+        <v>2009</v>
       </c>
       <c r="K46">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L46">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="M46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O46" t="s">
         <v>32</v>
       </c>
       <c r="P46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R46" t="s">
         <v>32</v>
       </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
       <c r="T46" t="s">
         <v>32</v>
       </c>
@@ -3461,6 +3941,9 @@
       </c>
       <c r="V46">
         <v>0</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:30">
@@ -3482,33 +3965,45 @@
       <c r="F47">
         <v>30840</v>
       </c>
+      <c r="G47">
+        <v>680</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>34</v>
+      </c>
       <c r="J47">
-        <v>1992</v>
+        <v>2004</v>
       </c>
       <c r="K47">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L47">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="M47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O47" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R47" t="s">
         <v>32</v>
       </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
       <c r="T47" t="s">
         <v>32</v>
       </c>
@@ -3519,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="AD47" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:30">
@@ -3536,40 +4031,43 @@
         <v>33</v>
       </c>
       <c r="E48">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>41120</v>
+        <v>23644</v>
       </c>
       <c r="G48">
-        <v>14000</v>
+        <v>15095</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
+      <c r="I48" t="s">
+        <v>35</v>
+      </c>
       <c r="J48">
-        <v>1982</v>
+        <v>1949</v>
       </c>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="L48">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="M48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O48" t="s">
         <v>32</v>
       </c>
       <c r="P48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R48" t="s">
         <v>32</v>
@@ -3587,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="AD48" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:30">
@@ -3604,38 +4102,50 @@
         <v>33</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>207200</v>
       </c>
       <c r="F49">
-        <v>23000</v>
+        <v>59091</v>
+      </c>
+      <c r="G49">
+        <v>22136</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>35</v>
       </c>
       <c r="J49">
-        <v>1995</v>
+        <v>1620</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L49">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="M49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O49" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R49" t="s">
         <v>32</v>
       </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
       <c r="T49" t="s">
         <v>32</v>
       </c>
@@ -3646,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="AD49" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:30">
@@ -3663,40 +4173,43 @@
         <v>33</v>
       </c>
       <c r="E50">
-        <v>186480</v>
+        <v>362600</v>
       </c>
       <c r="F50">
-        <v>15420</v>
+        <v>61680</v>
       </c>
       <c r="G50">
-        <v>2500</v>
+        <v>26100</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
+      <c r="I50" t="s">
+        <v>34</v>
+      </c>
       <c r="J50">
-        <v>1983</v>
+        <v>2003</v>
       </c>
       <c r="K50">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="L50">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="M50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O50" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R50" t="s">
         <v>32</v>
@@ -3714,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="AD50" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:30">
@@ -3731,38 +4244,50 @@
         <v>33</v>
       </c>
       <c r="E51">
-        <v>348096</v>
+        <v>275177</v>
       </c>
       <c r="F51">
-        <v>20560</v>
+        <v>35980</v>
+      </c>
+      <c r="G51">
+        <v>4200</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>34</v>
       </c>
       <c r="J51">
-        <v>1962</v>
+        <v>1966</v>
       </c>
       <c r="K51">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L51">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="M51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O51" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R51" t="s">
         <v>32</v>
       </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
       <c r="T51" t="s">
         <v>32</v>
       </c>
@@ -3773,131 +4298,7 @@
         <v>0</v>
       </c>
       <c r="AD51" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30">
-      <c r="A52" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52" t="s">
-        <v>33</v>
-      </c>
-      <c r="E52">
-        <v>250000</v>
-      </c>
-      <c r="F52">
-        <v>15420</v>
-      </c>
-      <c r="J52">
-        <v>1995</v>
-      </c>
-      <c r="K52">
-        <v>11</v>
-      </c>
-      <c r="L52">
-        <v>72</v>
-      </c>
-      <c r="M52" t="s">
-        <v>35</v>
-      </c>
-      <c r="N52" t="s">
-        <v>35</v>
-      </c>
-      <c r="O52" t="s">
-        <v>32</v>
-      </c>
-      <c r="P52" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>41</v>
-      </c>
-      <c r="R52" t="s">
-        <v>32</v>
-      </c>
-      <c r="T52" t="s">
-        <v>32</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30">
-      <c r="A53" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C53" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" t="s">
-        <v>33</v>
-      </c>
-      <c r="E53">
-        <v>404040</v>
-      </c>
-      <c r="F53">
-        <v>78776</v>
-      </c>
-      <c r="G53">
-        <v>3000</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>1974</v>
-      </c>
-      <c r="K53">
-        <v>12</v>
-      </c>
-      <c r="L53">
-        <v>81</v>
-      </c>
-      <c r="M53" t="s">
-        <v>35</v>
-      </c>
-      <c r="N53" t="s">
-        <v>35</v>
-      </c>
-      <c r="O53" t="s">
-        <v>32</v>
-      </c>
-      <c r="P53" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>41</v>
-      </c>
-      <c r="R53" t="s">
-        <v>32</v>
-      </c>
-      <c r="S53">
-        <v>4400</v>
-      </c>
-      <c r="T53" t="s">
-        <v>32</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="AD53" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
